--- a/data/trans_bre/LAWTONB_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 12,5</t>
+          <t>0,83; 12,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 16,0</t>
+          <t>3,49; 15,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 17,68</t>
+          <t>5,56; 17,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 50,21</t>
+          <t>1,98; 47,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 60,75</t>
+          <t>10,78; 59,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 74,28</t>
+          <t>18,38; 74,09</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 18,56</t>
+          <t>-8,36; 20,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 21,03</t>
+          <t>-3,24; 21,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 26,13</t>
+          <t>8,68; 25,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,54; 155,33</t>
+          <t>-41,72; 194,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 169,39</t>
+          <t>-19,35; 185,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,89; 292,87</t>
+          <t>55,67; 291,68</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 39,96</t>
+          <t>-6,17; 41,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 35,83</t>
+          <t>-3,93; 36,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 35,09</t>
+          <t>-5,46; 34,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 258,89</t>
+          <t>-21,15; 276,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,72; 678,54</t>
+          <t>-50,69; 665,77</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,26</t>
+          <t>2,39; 13,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,77</t>
+          <t>6,45; 17,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 19,55</t>
+          <t>9,52; 19,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 54,86</t>
+          <t>8,01; 55,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 72,33</t>
+          <t>21,71; 73,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,16; 105,32</t>
+          <t>40,89; 103,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 12,08</t>
+          <t>0,69; 12,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 15,8</t>
+          <t>2,99; 15,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 17,52</t>
+          <t>5,26; 17,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 47,9</t>
+          <t>1,82; 48,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 59,86</t>
+          <t>8,6; 57,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 74,09</t>
+          <t>16,94; 74,48</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 20,58</t>
+          <t>-6,76; 19,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 21,62</t>
+          <t>-3,27; 22,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 25,21</t>
+          <t>8,96; 27,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 194,26</t>
+          <t>-37,64; 171,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 185,05</t>
+          <t>-15,81; 188,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,67; 291,68</t>
+          <t>56,32; 301,96</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 41,9</t>
+          <t>-7,54; 41,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 36,74</t>
+          <t>-5,74; 37,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 34,44</t>
+          <t>-7,71; 32,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 276,73</t>
+          <t>-27,04; 259,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,23; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,69; 665,77</t>
+          <t>-55,82; 625,83</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,17</t>
+          <t>2,4; 13,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,07</t>
+          <t>5,66; 16,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 19,33</t>
+          <t>9,82; 19,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,01; 55,56</t>
+          <t>8,13; 56,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 73,62</t>
+          <t>19,13; 70,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,89; 103,51</t>
+          <t>41,62; 104,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/LAWTONB_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_R2-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 12,57</t>
+          <t>0,1; 12,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,45</t>
+          <t>3,35; 16,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 17,57</t>
+          <t>5,13; 17,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 48,26</t>
+          <t>-0,08; 50,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 57,12</t>
+          <t>9,72; 60,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 74,48</t>
+          <t>16,92; 74,28</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 19,47</t>
+          <t>-8,12; 18,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 22,31</t>
+          <t>-3,0; 21,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 27,05</t>
+          <t>8,32; 26,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 171,96</t>
+          <t>-43,54; 155,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 188,72</t>
+          <t>-17,94; 169,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,32; 301,96</t>
+          <t>52,89; 292,87</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 41,04</t>
+          <t>-8,59; 39,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 37,31</t>
+          <t>-7,59; 35,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 32,42</t>
+          <t>-6,7; 35,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 259,63</t>
+          <t>-29,27; 258,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,23; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 625,83</t>
+          <t>-51,72; 678,54</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 13,2</t>
+          <t>2,38; 13,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 16,57</t>
+          <t>5,55; 16,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 19,63</t>
+          <t>9,93; 19,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 56,4</t>
+          <t>5,96; 54,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 70,47</t>
+          <t>17,9; 72,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,62; 104,47</t>
+          <t>42,16; 105,32</t>
         </is>
       </c>
     </row>
